--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BlueSky\GitHub\BlueSKYClone\BlueSkyGitTraining2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4800" yWindow="2820" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Message to the tutor</t>
+  </si>
+  <si>
+    <t>Deji O</t>
+  </si>
+  <si>
+    <t>I don’t like your teaching!!! I love it!!!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +353,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BlueSky\GitHub\BlueSKYClone\BlueSkyGitTraining2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60988AF-D124-4A52-AA3B-BE58AC73F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2820" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>I don’t like your teaching!!! I love it!!!</t>
+  </si>
+  <si>
+    <t>Deji E</t>
+  </si>
+  <si>
+    <t>This is my dev branch</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -378,6 +384,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BlueSky\GitHub\BlueSKYClone\BlueSkyGitTraining2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60988AF-D124-4A52-AA3B-BE58AC73F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A331D-5AC1-4D32-884F-7ECDF383D8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2820" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>I don’t like your teaching!!! I love it!!!</t>
   </si>
   <si>
-    <t>Deji E</t>
-  </si>
-  <si>
     <t>This is my dev branch</t>
+  </si>
+  <si>
+    <t>Deji E1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -386,10 +386,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BlueSky\GitHub\BlueSKYClone\BlueSkyGitTraining2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021ae5e30351dd5b/Documents/GitHub/BlueSkyGitTraining2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78B13CBE-D866-444B-8EB8-DFB4D0957A3E}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2820" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Message to the tutor</t>
-  </si>
-  <si>
-    <t>Deji O</t>
-  </si>
-  <si>
-    <t>I don’t like your teaching!!! I love it!!!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Message to the tutor Mr Deji O</t>
+  </si>
+  <si>
+    <t>Patrick Waithaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir I love your Teaching </t>
+  </si>
+  <si>
+    <t>Thank you for this opportunity</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,12 +377,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021ae5e30351dd5b/Documents/GitHub/BlueSkyGitTraining2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78B13CBE-D866-444B-8EB8-DFB4D0957A3E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB1DD16B-3F49-42F1-BD45-4C36B8ECFE55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Student Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Thank you for this opportunity</t>
+  </si>
+  <si>
+    <t>This is my new branch</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -390,6 +393,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021ae5e30351dd5b/Documents/GitHub/BlueSkyGitTraining2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB1DD16B-3F49-42F1-BD45-4C36B8ECFE55}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71D9B5AC-8AF3-4BAB-BD27-53E041F67A58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Thank you for this opportunity</t>
   </si>
   <si>
-    <t>This is my new branch</t>
+    <t>This is my new branch dev</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/021ae5e30351dd5b/Documents/GitHub/BlueSkyGitTraining2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71D9B5AC-8AF3-4BAB-BD27-53E041F67A58}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F39280F9-7252-48F8-A870-1E4F96F97EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4D23672-5709-46CF-B269-396CA70225E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Thank you for this opportunity</t>
   </si>
   <si>
-    <t>This is my new branch dev</t>
+    <t>This is my new branch dev 1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
